--- a/data/case1/20/P2_5.xlsx
+++ b/data/case1/20/P2_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.32945088764832064</v>
+        <v>0.26437026758141258</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999991157524448</v>
+        <v>-0.0099999997318676037</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999991051232797</v>
+        <v>-0.0089999997303813473</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061991334803124687</v>
+        <v>0.061996648275520982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999991200232472</v>
+        <v>-0.0059999997375115299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999990895356348</v>
+        <v>-0.0059999997306334762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998929993268</v>
+        <v>-0.019999999675153646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998927910489</v>
+        <v>-0.019999999672027258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990865744479</v>
+        <v>-0.0059999997229995827</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999990883241594</v>
+        <v>-0.0059999997200748112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999991055334476</v>
+        <v>-0.0044999997257235691</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999990896497657</v>
+        <v>-0.0059999997192288212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999990982095852</v>
+        <v>-0.0059999997167921038</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999033957209</v>
+        <v>0.010087515200567942</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.068588003209367088</v>
+        <v>-0.0059999997150699258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.005999999104291831</v>
+        <v>-0.0059999997140209871</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999991006813858</v>
+        <v>-0.0059999997126656268</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999990662130713</v>
+        <v>-0.0089999997006815491</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.086976904272614508</v>
+        <v>-0.058680798078850405</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999991153053571</v>
+        <v>-0.0089999997324063941</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999991140929936</v>
+        <v>-0.0089999997320111547</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999991134348534</v>
+        <v>-0.0089999997317127267</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999990977895905</v>
+        <v>-0.0089999997277807608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998712594078</v>
+        <v>-0.041999999595007331</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.034741386386039963</v>
+        <v>-0.041999999592715831</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999990849988194</v>
+        <v>-0.005999999730587291</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.029432342677155443</v>
+        <v>-0.0059999997302320196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999990591617092</v>
+        <v>-0.0059999997292825569</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999998978811988</v>
+        <v>-0.011999999705606612</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.01999999888199433</v>
+        <v>-0.019999999674731761</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998928910685</v>
+        <v>-0.014999999695717747</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998859568159</v>
+        <v>-0.02099999967322308</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999990290027228</v>
+        <v>0.061383653262995885</v>
       </c>
     </row>
   </sheetData>
